--- a/log/customer_address_error.xlsx
+++ b/log/customer_address_error.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>customer_id</t>
   </si>
@@ -43,55 +43,34 @@
     <t>indo_info</t>
   </si>
   <si>
-    <t>customer_name</t>
-  </si>
-  <si>
-    <t>customer_address</t>
-  </si>
-  <si>
-    <t>formal_address</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>shop_type</t>
-  </si>
-  <si>
-    <t>contact_name</t>
-  </si>
-  <si>
-    <t>longtitude</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
     <t>error_type</t>
   </si>
   <si>
-    <t>indo_type</t>
-  </si>
-  <si>
-    <t>updated_date</t>
-  </si>
-  <si>
-    <t>1027</t>
-  </si>
-  <si>
     <t>1031</t>
   </si>
   <si>
     <t>1063</t>
   </si>
   <si>
-    <t>1066</t>
-  </si>
-  <si>
-    <t>INDOMARCO PRISMATAMA, PT</t>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1112</t>
   </si>
   <si>
     <t>INDO DIGITAL SUKSES SEJATI, PT</t>
@@ -100,40 +79,100 @@
     <t>THE POKEMON COMPANY</t>
   </si>
   <si>
-    <t>AXTON SALIM</t>
-  </si>
-  <si>
-    <t>MODERN RETAIL</t>
+    <t>BLASTOYZ (ANDRICH WIDIPURO)</t>
+  </si>
+  <si>
+    <t>TOYS CITY CARD CENTER (DENDY SANTOSO)</t>
+  </si>
+  <si>
+    <t>GOOD GUY GAMES (KURNIADI PATRIAWAN)</t>
+  </si>
+  <si>
+    <t>AEON, PT</t>
+  </si>
+  <si>
+    <t>ETERNITY GAMES (RIDWAN KARNADI)</t>
+  </si>
+  <si>
+    <t>CHRONO PORTAL (GILBERT TIMOTHY HENDRAWAN)</t>
+  </si>
+  <si>
+    <t>DUEL AND CHILI (DENNIS TANAKA)</t>
   </si>
   <si>
     <t>OTHER</t>
   </si>
   <si>
+    <t>CARD SHOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODERN RETAIL </t>
+  </si>
+  <si>
     <t>CYBER 2 TOWER LT. 33</t>
   </si>
   <si>
     <t>ROPPONGI HILLS MORI TOWER 8F, 6-10-1, ROPPONGI, MINATO-KU, TOKYO, JAPAN</t>
   </si>
   <si>
-    <t>MENARA INDOFOOD</t>
+    <t>JL. LKR. LUAR BARAT, RT.6/RW.14, CENGKARENG TIM., KECAMATAN CENGKARENG, KOTA JAKARTA BARAT, DAERAH KHUSUS IBUKOTA JAKARTA</t>
+  </si>
+  <si>
+    <t>JL. PURI AGUNG, RT.1/RW.1, SOUTH KEMBANGAN, KEMBANGAN</t>
+  </si>
+  <si>
+    <t>JALAN MANDALA RAYA 33B RT 1/RW 4, TOMANG</t>
+  </si>
+  <si>
+    <t>JL JAKARTA GARDEN CITY RT.01/RW.06 KEL. CAKUNG TIMUR, KEC. CAKUNG</t>
+  </si>
+  <si>
+    <t>JL. MANGGA BESAR IX NO.7, RT.6/RW.2, TANGKI, KEC. TAMAN SARI</t>
+  </si>
+  <si>
+    <t>RUKO PASAR MODERN BLOK R NO. 67, HARAPAN INDAH</t>
+  </si>
+  <si>
+    <t>RUKO TAMAN SEMANAN INDAH, JL. DHARMA KENCANA NO.34, RT.15/RW.11, DURI KOSAMBI, KECAMATAN CENGKARENG</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
   </si>
   <si>
-    <t>JAKARTA UTARA</t>
-  </si>
-  <si>
-    <t>STEFANUS ANDRE</t>
+    <t>JAWA BARAT</t>
+  </si>
+  <si>
+    <t>JAKARTA BARAT</t>
+  </si>
+  <si>
+    <t>JAKARTA TIMUR</t>
+  </si>
+  <si>
+    <t>BEKASI</t>
+  </si>
+  <si>
+    <t>DENDY SANTOSO</t>
+  </si>
+  <si>
+    <t>KURNIADI PATRIAWAN</t>
+  </si>
+  <si>
+    <t>RIDWAN KARNADI</t>
+  </si>
+  <si>
+    <t>GILBERT TIMOTHY HENDRAWAN</t>
+  </si>
+  <si>
+    <t>DENNIS TANAKA</t>
   </si>
   <si>
     <t>NON_INDO</t>
   </si>
   <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>CITY NA</t>
+    <t>missing city or address</t>
+  </si>
+  <si>
+    <t>address and api calling require double confirmation</t>
   </si>
 </sst>
 </file>
@@ -491,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,378 +567,281 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>11750</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5">
+        <v>11230</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="1">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="1">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="1">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="1">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7">
+        <v>13910</v>
       </c>
       <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="K7" t="s">
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8">
+        <v>11170</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="1">
-        <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="1">
-        <v>129</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>38</v>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
